--- a/IndexCounter/IndexCounter/bin/Debug/Мужчины внутреннее (Det)(15.07.2015 14-00-41).xlsx
+++ b/IndexCounter/IndexCounter/bin/Debug/Мужчины внутреннее (Det)(15.07.2015 14-00-41).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovachev\Desktop\LAR (Det)\Det\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\IndexCounter\IndexCounter\IndexCounter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -215,8 +215,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17365325523333974"/>
-                  <c:y val="-1.6157776516179993E-2"/>
+                  <c:x val="-0.47243374303821778"/>
+                  <c:y val="2.5639506660413529E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -583,11 +583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374531760"/>
-        <c:axId val="374531368"/>
+        <c:axId val="356336584"/>
+        <c:axId val="356333056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374531760"/>
+        <c:axId val="356336584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,12 +704,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374531368"/>
+        <c:crossAx val="356333056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374531368"/>
+        <c:axId val="356333056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +830,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374531760"/>
+        <c:crossAx val="356336584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1439,16 +1439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
